--- a/public/excel/report.xlsx
+++ b/public/excel/report.xlsx
@@ -39,6 +39,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>表格名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%forRBegin rs1,i in _data_[1]%&gt;  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.title %&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=rs1.author %&gt; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forREnd%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%forRBegin rs1,i in _data_[2]%&gt;  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.name %&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.num %&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.wordageNum %&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总篇数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总字数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>文章标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -48,55 +90,12 @@
   </si>
   <si>
     <t>发布时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格名称：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%forRBegin rs1,i in _data_[1]%&gt;  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.title %&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=rs1.author %&gt; </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forREnd%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%forRBegin rs1,i in _data_[2]%&gt;  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.name %&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.num %&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.wordageNum %&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>总篇数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总字数</t>
+  </si>
+  <si>
+    <t>简书ID</t>
+  </si>
+  <si>
+    <t>简书ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,12 +526,12 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
     <col min="2" max="2" width="33.375" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
@@ -551,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -579,40 +578,40 @@
     </row>
     <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -627,9 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -640,36 +637,36 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
